--- a/data/b_rcv.xlsx
+++ b/data/b_rcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Base</t>
-  </si>
-  <si>
-    <t>Two Year Base</t>
-  </si>
-  <si>
-    <t>Three Year Base</t>
-  </si>
-  <si>
-    <t>Five Year Base</t>
-  </si>
-  <si>
-    <t>Ten Year Base</t>
+    <t>One Year Base mean</t>
+  </si>
+  <si>
+    <t>One Year Base std</t>
+  </si>
+  <si>
+    <t>Two Year Base mean</t>
+  </si>
+  <si>
+    <t>Two Year Base std</t>
+  </si>
+  <si>
+    <t>Three Year Base mean</t>
+  </si>
+  <si>
+    <t>Three Year Base std</t>
+  </si>
+  <si>
+    <t>Five Year Base mean</t>
+  </si>
+  <si>
+    <t>Five Year Base std</t>
+  </si>
+  <si>
+    <t>Ten Year Base mean</t>
+  </si>
+  <si>
+    <t>Ten Year Base std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8571354003549431</v>
+        <v>0.8647381650607457</v>
       </c>
       <c r="D2">
-        <v>0.8406838656838657</v>
+        <v>0.02143645563772809</v>
       </c>
       <c r="E2">
-        <v>0.827593278972078</v>
+        <v>0.8515903658760801</v>
       </c>
       <c r="F2">
-        <v>0.8217054263565892</v>
+        <v>0.03049269606396709</v>
       </c>
       <c r="G2">
-        <v>0.8298928369994361</v>
+        <v>0.8325591848966137</v>
+      </c>
+      <c r="H2">
+        <v>0.0368960374448482</v>
+      </c>
+      <c r="I2">
+        <v>0.8250847868217054</v>
+      </c>
+      <c r="J2">
+        <v>0.05002388606835779</v>
+      </c>
+      <c r="K2">
+        <v>0.8389507318078747</v>
+      </c>
+      <c r="L2">
+        <v>0.04306738218990206</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8028353690364339</v>
+        <v>0.8375576036866359</v>
       </c>
       <c r="D3">
-        <v>0.798136773136773</v>
+        <v>0.01887976606521018</v>
       </c>
       <c r="E3">
-        <v>0.7888880652335063</v>
+        <v>0.8225087332230189</v>
       </c>
       <c r="F3">
-        <v>0.782170542635659</v>
+        <v>0.03592383650015361</v>
       </c>
       <c r="G3">
-        <v>0.7894118853509716</v>
+        <v>0.8113525122365397</v>
+      </c>
+      <c r="H3">
+        <v>0.02862950412618045</v>
+      </c>
+      <c r="I3">
+        <v>0.802531492248062</v>
+      </c>
+      <c r="J3">
+        <v>0.05449779360672961</v>
+      </c>
+      <c r="K3">
+        <v>0.8065038136466708</v>
+      </c>
+      <c r="L3">
+        <v>0.04520591062944009</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.8797640672303999</v>
+        <v>0.8873900293255131</v>
       </c>
       <c r="D4">
-        <v>0.8892733642733642</v>
+        <v>0.03012607663383144</v>
       </c>
       <c r="E4">
-        <v>0.8803706449221647</v>
+        <v>0.8983590733590733</v>
       </c>
       <c r="F4">
-        <v>0.8813953488372093</v>
+        <v>0.02627559412815156</v>
       </c>
       <c r="G4">
-        <v>0.8521765882171973</v>
+        <v>0.8954250324642892</v>
+      </c>
+      <c r="H4">
+        <v>0.02785756923757248</v>
+      </c>
+      <c r="I4">
+        <v>0.8950823643410853</v>
+      </c>
+      <c r="J4">
+        <v>0.03036409627737291</v>
+      </c>
+      <c r="K4">
+        <v>0.8844258915687486</v>
+      </c>
+      <c r="L4">
+        <v>0.04179079833207544</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7808581271531475</v>
+        <v>0.7916547968160872</v>
       </c>
       <c r="D5">
-        <v>0.7636682136682136</v>
+        <v>0.03783201731496429</v>
       </c>
       <c r="E5">
-        <v>0.7762095379293305</v>
+        <v>0.7872448979591838</v>
       </c>
       <c r="F5">
-        <v>0.7914728682170542</v>
+        <v>0.04141869901784344</v>
       </c>
       <c r="G5">
-        <v>0.7803466133415372</v>
+        <v>0.7745729697332934</v>
+      </c>
+      <c r="H5">
+        <v>0.02698937209257003</v>
+      </c>
+      <c r="I5">
+        <v>0.7651647286821704</v>
+      </c>
+      <c r="J5">
+        <v>0.035318261666922</v>
+      </c>
+      <c r="K5">
+        <v>0.7842094413522985</v>
+      </c>
+      <c r="L5">
+        <v>0.04484765879048858</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.879759891429168</v>
+        <v>0.8537243401759531</v>
       </c>
       <c r="D6">
-        <v>0.8703658203658204</v>
+        <v>0.02083139725462477</v>
       </c>
       <c r="E6">
-        <v>0.855021003212256</v>
+        <v>0.8455460562603421</v>
       </c>
       <c r="F6">
-        <v>0.8465116279069769</v>
+        <v>0.03463259763859165</v>
       </c>
       <c r="G6">
-        <v>0.848156693841973</v>
+        <v>0.8403256417940266</v>
+      </c>
+      <c r="H6">
+        <v>0.02482491583317106</v>
+      </c>
+      <c r="I6">
+        <v>0.8242974806201551</v>
+      </c>
+      <c r="J6">
+        <v>0.04788590580191691</v>
+      </c>
+      <c r="K6">
+        <v>0.8115852401566688</v>
+      </c>
+      <c r="L6">
+        <v>0.04440990971315106</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8325775133103663</v>
+        <v>0.8336866359447006</v>
       </c>
       <c r="D7">
-        <v>0.8136545636545638</v>
+        <v>0.02215932895701345</v>
       </c>
       <c r="E7">
-        <v>0.8043834939461328</v>
+        <v>0.8346892811178526</v>
       </c>
       <c r="F7">
-        <v>0.8038759689922481</v>
+        <v>0.04525953605319261</v>
       </c>
       <c r="G7">
-        <v>0.8005793980413269</v>
+        <v>0.8304365198281889</v>
+      </c>
+      <c r="H7">
+        <v>0.03262255208120857</v>
+      </c>
+      <c r="I7">
+        <v>0.8374939437984497</v>
+      </c>
+      <c r="J7">
+        <v>0.04197179298073423</v>
+      </c>
+      <c r="K7">
+        <v>0.8470006184291898</v>
+      </c>
+      <c r="L7">
+        <v>0.04364069098483705</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.7911911473013884</v>
+        <v>0.8686342689568496</v>
       </c>
       <c r="D8">
-        <v>0.7853171353171354</v>
+        <v>0.02169271019065537</v>
       </c>
       <c r="E8">
-        <v>0.7776451692611811</v>
+        <v>0.8787277072991359</v>
       </c>
       <c r="F8">
-        <v>0.7410852713178294</v>
+        <v>0.03135104519053251</v>
       </c>
       <c r="G8">
-        <v>0.7216223145157155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.873283223718551</v>
-      </c>
-      <c r="D9">
-        <v>0.8723996723996723</v>
-      </c>
-      <c r="E9">
-        <v>0.8655843834939461</v>
-      </c>
-      <c r="F9">
-        <v>0.865891472868217</v>
-      </c>
-      <c r="G9">
-        <v>0.8511408501256217</v>
+        <v>0.8791579262810908</v>
+      </c>
+      <c r="H8">
+        <v>0.02128888208214228</v>
+      </c>
+      <c r="I8">
+        <v>0.8811107073643412</v>
+      </c>
+      <c r="J8">
+        <v>0.03136849859284919</v>
+      </c>
+      <c r="K8">
+        <v>0.8612347969490827</v>
+      </c>
+      <c r="L8">
+        <v>0.0379998346360849</v>
       </c>
     </row>
   </sheetData>
